--- a/data/dental_laboratories/data.xlsx
+++ b/data/dental_laboratories/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\オープンデータ\歯科技工所（0116）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\オープンデータ\歯科技工所\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="619">
   <si>
     <t>№</t>
   </si>
@@ -1878,6 +1878,22 @@
     <t>株式会社WILLE　</t>
     <rPh sb="0" eb="4">
       <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香川県高松市香西東町３１５番地10</t>
+    <rPh sb="0" eb="3">
+      <t>カガワケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タカマツシ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>コウザイヒガシマチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バンチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1922,11 +1938,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2274,2332 +2304,2337 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H110" sqref="H110"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.796875" customWidth="1"/>
-    <col min="3" max="3" width="32.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="4"/>
+    <col min="2" max="2" width="34.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="4" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="4" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H34" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="4" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="4" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H38" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="H39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="H40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="4" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="4" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="4" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="4" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="4" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="4" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="4" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="4" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="4" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="4" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="4" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="4" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="4" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="4" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="4" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="4" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="D58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="6">
         <v>44105</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="4" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="4" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="4" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="4" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="H63" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="H63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="D64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="4" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="4" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D66" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="H66" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="H66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D67" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="H67" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="H67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="H68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="H68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="H69" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="H69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="H70" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="H70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D71" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="H71" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="H71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="D72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="H72" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="H72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="H73" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="H73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D74" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="H74" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="H74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="D75" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="D75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="4" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="H76" t="s">
+      <c r="G76" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="4" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="4" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="D78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="H78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="H78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="4" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="H79" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="H79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="4" t="s">
         <v>616</v>
       </c>
     </row>
@@ -4609,7 +4644,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I54 A56:I57 A55:H55 A77:I80 A76:F76 H76:I76 A59:I75 A58 D58:H58" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I3 B56:I57 B55:H55 B80:I80 B76:F76 H76:I76 B59:I75 D58:H58 B4:I54 B77:I79" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/dental_laboratories/data.xlsx
+++ b/data/dental_laboratories/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="615">
   <si>
     <t>№</t>
   </si>
@@ -660,9 +660,6 @@
     <t>香川県高松市亀水町８０７番地２</t>
   </si>
   <si>
-    <t>S60.1</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
@@ -1170,9 +1167,6 @@
     <t>香川県高松市多肥上町１２２３番地１９</t>
   </si>
   <si>
-    <t>090-5711-1007</t>
-  </si>
-  <si>
     <t>2013/1/1</t>
   </si>
   <si>
@@ -1218,9 +1212,6 @@
     <t>香川県高松市藤塚町二丁目４番８号</t>
   </si>
   <si>
-    <t>090-2822-9992</t>
-  </si>
-  <si>
     <t>2014/2/4</t>
   </si>
   <si>
@@ -1359,9 +1350,6 @@
     <t>香川県高松市西ハゼ町１８８番地１　三笠ハイツ１０２</t>
   </si>
   <si>
-    <t>090-1578-8679</t>
-  </si>
-  <si>
     <t>2015/5/18</t>
   </si>
   <si>
@@ -1446,9 +1434,6 @@
     <t>香川県高松市今里町一丁目４５４番地１</t>
   </si>
   <si>
-    <t>080-2983-8964</t>
-  </si>
-  <si>
     <t>2015/9/26</t>
   </si>
   <si>
@@ -1515,9 +1500,6 @@
     <t>香川県高松市勅使町１４１０番地４−３</t>
   </si>
   <si>
-    <t>090-2898-8048</t>
-  </si>
-  <si>
     <t>2018/11/29</t>
   </si>
   <si>
@@ -1755,9 +1737,6 @@
     <t>香川県高松市香川町川東上１４３６番地１</t>
   </si>
   <si>
-    <t>090-1328-6286</t>
-  </si>
-  <si>
     <t>2022/9/28</t>
   </si>
   <si>
@@ -1836,9 +1815,6 @@
     <t>オカダデンタルラボラトリー</t>
   </si>
   <si>
-    <t>岡田　真始</t>
-  </si>
-  <si>
     <t>34.333779</t>
   </si>
   <si>
@@ -1848,9 +1824,6 @@
     <t>香川県高松市高松町１４６４番地１３</t>
   </si>
   <si>
-    <t>2023/1/1</t>
-  </si>
-  <si>
     <t>79</t>
   </si>
   <si>
@@ -1867,9 +1840,6 @@
   </si>
   <si>
     <t>香川県高松市新田町甲６１４番地８</t>
-  </si>
-  <si>
-    <t>090-4332-5694</t>
   </si>
   <si>
     <t>2024/3/21</t>
@@ -1895,6 +1865,41 @@
     <rPh sb="13" eb="15">
       <t>バンチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田　秀夫</t>
+    <rPh sb="3" eb="5">
+      <t>ヒデオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社Doデンタルラボ</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社Doデンタルラボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香川県高松市木太町２３３６番地１</t>
+    <rPh sb="0" eb="9">
+      <t>７６０－００８０</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>1985/1/0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1918,12 +1923,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1938,7 +1949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1957,6 +1968,21 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2300,11 +2326,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -3101,120 +3127,120 @@
         <v>12</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>212</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>167</v>
@@ -3222,779 +3248,770 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="I35" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="I36" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="I41" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="I42" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>333</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="I44" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="I45" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="I47" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="I49" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="H50" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="I50" s="4" t="s">
         <v>389</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="I51" s="4" t="s">
         <v>396</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="H52" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="I52" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="H53" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="I53" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="H54" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="I54" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="H55" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="H56" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="I56" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="I57" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H58" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>451</v>
       </c>
       <c r="I58" s="6">
         <v>44105</v>
@@ -4002,641 +4019,658 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="H59" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="I59" s="4" t="s">
         <v>456</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="H60" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>467</v>
-      </c>
       <c r="I60" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="I61" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="H62" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="I62" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="H63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="I64" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="I65" s="4" t="s">
         <v>500</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="H70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>543</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="I75" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="I76" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="I77" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="F79" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G79" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>608</v>
+      <c r="H79" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="9">
+        <v>45566</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="D81" s="7"/>
+      <c r="E81" s="10">
+        <v>34.335580999999998</v>
+      </c>
+      <c r="F81" s="10">
+        <v>134.072305</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>616</v>
-      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="9">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I80"/>
@@ -4644,7 +4678,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I3 B56:I57 B55:H55 B80:I80 B76:F76 H76:I76 B59:I75 D58:H58 B4:I54 B77:I79" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I3 B56:I56 B55:H55 B80:G80 B76:F76 H76:I76 B59:I60 D58:H58 B4:I26 B77:I78 B79 D79:H79 B57:G57 I57 B62:I63 B61:G61 I61 B65:I74 B64:G64 I64 B75:G75 I75 I80 B50:I50 B49:G49 I49 B52:I54 B51:G51 I51 B28:I48 B27:H27" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/dental_laboratories/data.xlsx
+++ b/data/dental_laboratories/data.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$82</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="619">
   <si>
     <t>№</t>
   </si>
@@ -1900,6 +1900,39 @@
   </si>
   <si>
     <t>1985/1/0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>フェルナ　ベイル　Dentai Laboratory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>江戸　良太</t>
+    <rPh sb="0" eb="2">
+      <t>エド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リョウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香川県高松市国分寺町新居1761-1</t>
+    <rPh sb="0" eb="3">
+      <t>カガワケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タカマツシ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>コクブンジチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アライ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1923,18 +1956,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1949,19 +1976,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1969,20 +1987,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2329,2356 +2341,2373 @@
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="4"/>
-    <col min="2" max="2" width="34.796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="2" max="2" width="34.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="H26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="4" t="s">
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="2" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="2" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="2" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="2" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="H34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="2" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="4" t="s">
+      <c r="H37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="H38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="4" t="s">
+      <c r="H39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="H40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="2" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="2" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="2" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="2" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="2" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="2" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="2" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="2" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="2" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="2" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="2" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="D57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="2" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="3">
         <v>44105</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="2" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H60" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I60" s="2" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" s="2" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="2" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="4" t="s">
+      <c r="H63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="D64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I64" s="2" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="D65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I65" s="2" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="D66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="H66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="4" t="s">
+      <c r="H66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="D67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="4" t="s">
+      <c r="H67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="D68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="H68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="4" t="s">
+      <c r="H68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="4" t="s">
+      <c r="H69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="4" t="s">
+      <c r="H70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="D71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="4" t="s">
+      <c r="H71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="D72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="4" t="s">
+      <c r="H72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="D73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="H73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="4" t="s">
+      <c r="H73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="D74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" s="4" t="s">
+      <c r="H74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="D75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="I75" s="4" t="s">
+      <c r="I75" s="2" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I76" s="2" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="D77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="H77" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="I77" s="4" t="s">
+      <c r="I77" s="2" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="D78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="4" t="s">
+      <c r="H78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="7" t="s">
+      <c r="D79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H79" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="9">
+      <c r="H79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="3">
         <v>45566</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="D80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I80" s="2" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="10">
+      <c r="E81" s="4">
         <v>34.335580999999998</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="4">
         <v>134.072305</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G81" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="9">
+      <c r="I81" s="3">
         <v>45562</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
+      <c r="A82" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E82" s="4">
+        <v>34.302599000000001</v>
+      </c>
+      <c r="F82" s="6">
+        <v>133.95939100000001</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I82" s="3">
+        <v>45658</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I80"/>
+  <autoFilter ref="A1:I82"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I3 B56:I56 B55:H55 B80:G80 B76:F76 H76:I76 B59:I60 D58:H58 B4:I26 B77:I78 B79 D79:H79 B57:G57 I57 B62:I63 B61:G61 I61 B65:I74 B64:G64 I64 B75:G75 I75 I80 B50:I50 B49:G49 I49 B52:I54 B51:G51 I51 B28:I48 B27:H27" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:I1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/dental_laboratories/data.xlsx
+++ b/data/dental_laboratories/data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="615">
   <si>
     <t>№</t>
   </si>
@@ -1126,27 +1126,6 @@
   </si>
   <si>
     <t>47</t>
-  </si>
-  <si>
-    <t>黒島技工所</t>
-  </si>
-  <si>
-    <t>黒島　雅文</t>
-  </si>
-  <si>
-    <t>34.250049</t>
-  </si>
-  <si>
-    <t>134.035781</t>
-  </si>
-  <si>
-    <t>香川県高松市香川町浅野１３５５番地１７</t>
-  </si>
-  <si>
-    <t>087-879-5622</t>
-  </si>
-  <si>
-    <t>2012/6/20</t>
   </si>
   <si>
     <t>48</t>
@@ -1932,6 +1911,33 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>アライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デンチャーラボ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山地　圭三</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香川県高松市木太町３６１１－1</t>
+    <rPh sb="0" eb="3">
+      <t>カガワケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タカマツシ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キタチョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2341,8 +2347,8 @@
   <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -3139,7 +3145,7 @@
         <v>12</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3727,303 +3733,297 @@
         <v>367</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>368</v>
+        <v>612</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>371</v>
+        <v>613</v>
+      </c>
+      <c r="E48" s="1">
+        <v>34.325445999999999</v>
+      </c>
+      <c r="F48" s="1">
+        <v>134.07985099999999</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>374</v>
+        <v>614</v>
+      </c>
+      <c r="I48" s="3">
+        <v>32964</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="I58" s="3">
         <v>44105</v>
@@ -4031,596 +4031,596 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="I59" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I76" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>12</v>
@@ -4631,39 +4631,39 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="E81" s="4">
         <v>34.335580999999998</v>
@@ -4672,7 +4672,7 @@
         <v>134.072305</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="I81" s="3">
         <v>45562</v>
@@ -4680,13 +4680,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E82" s="4">
         <v>34.302599000000001</v>
@@ -4695,7 +4695,7 @@
         <v>133.95939100000001</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I82" s="3">
         <v>45658</v>

--- a/data/dental_laboratories/data.xlsx
+++ b/data/dental_laboratories/data.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\オープンデータ\歯科技工所\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\オープンデータ更新（一時保管）\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D7B3CD-401F-4743-A7A5-2E99677BA3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$82</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="635">
   <si>
     <t>№</t>
   </si>
@@ -51,6 +49,9 @@
     <t>開設日</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -660,6 +661,9 @@
     <t>香川県高松市亀水町８０７番地２</t>
   </si>
   <si>
+    <t>1985/1/0</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
@@ -1128,6 +1132,24 @@
     <t>47</t>
   </si>
   <si>
+    <t>デンチャーラボ</t>
+  </si>
+  <si>
+    <t>山地　圭三</t>
+  </si>
+  <si>
+    <t>34.325446</t>
+  </si>
+  <si>
+    <t>134.079851</t>
+  </si>
+  <si>
+    <t>香川県高松市木太町３６１１−1</t>
+  </si>
+  <si>
+    <t>2020/4/1</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
@@ -1335,6 +1357,9 @@
     <t>57</t>
   </si>
   <si>
+    <t>株式会社WILLE　</t>
+  </si>
+  <si>
     <t>34.284566</t>
   </si>
   <si>
@@ -1347,6 +1372,9 @@
     <t>087-880-2654</t>
   </si>
   <si>
+    <t>2020/10/1</t>
+  </si>
+  <si>
     <t>58</t>
   </si>
   <si>
@@ -1728,224 +1756,182 @@
     <t>株式会社シケン</t>
   </si>
   <si>
+    <t>34.343695</t>
+  </si>
+  <si>
+    <t>134.005401</t>
+  </si>
+  <si>
+    <t>香川県高松市香西東町３１５番地10</t>
+  </si>
+  <si>
+    <t>087-804-7270</t>
+  </si>
+  <si>
+    <t>2023/1/10</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>広田技工所</t>
+  </si>
+  <si>
+    <t>小川　慈男</t>
+  </si>
+  <si>
+    <t>34.283351</t>
+  </si>
+  <si>
+    <t>134.043396</t>
+  </si>
+  <si>
+    <t>香川県高松市仏生山町甲３２３番地</t>
+  </si>
+  <si>
+    <t>087-889-1010</t>
+  </si>
+  <si>
+    <t>1993/5/1</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>凪</t>
+  </si>
+  <si>
+    <t>岩田　力</t>
+  </si>
+  <si>
+    <t>34.397641</t>
+  </si>
+  <si>
+    <t>134.130906</t>
+  </si>
+  <si>
+    <t>香川県高松市庵治町５４５５番地１</t>
+  </si>
+  <si>
+    <t>2023/4/8</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>オカダデンタルラボラトリー</t>
+  </si>
+  <si>
+    <t>岡田　秀夫</t>
+  </si>
+  <si>
+    <t>34.333779</t>
+  </si>
+  <si>
+    <t>134.117562</t>
+  </si>
+  <si>
+    <t>香川県高松市高松町１４６４番地１３</t>
+  </si>
+  <si>
+    <t>2024/10/1</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>ＳＭＬデンタルラボラトリー</t>
+  </si>
+  <si>
+    <t>多田　祐介</t>
+  </si>
+  <si>
+    <t>34.324089</t>
+  </si>
+  <si>
+    <t>134.103766</t>
+  </si>
+  <si>
+    <t>香川県高松市新田町甲６１４番地８</t>
+  </si>
+  <si>
+    <t>2024/3/21</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>株式会社Doデンタルラボ</t>
+  </si>
+  <si>
+    <t>34.335581</t>
+  </si>
+  <si>
+    <t>134.072305</t>
+  </si>
+  <si>
+    <t>香川県高松市木太町２３３６番地１</t>
+  </si>
+  <si>
+    <t>2024/9/27</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>フェルナ　ベイル　Dentai Laboratory</t>
+  </si>
+  <si>
+    <t>江戸　良太</t>
+  </si>
+  <si>
+    <t>34.302599</t>
+  </si>
+  <si>
+    <t>133.959391</t>
+  </si>
+  <si>
+    <t>香川県高松市国分寺町新居1761-1</t>
+  </si>
+  <si>
+    <t>2025/1/1</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>hama lab</t>
+  </si>
+  <si>
+    <t>濵﨑　順一</t>
+  </si>
+  <si>
+    <t>34.28905</t>
+  </si>
+  <si>
+    <t>134.05891</t>
+  </si>
+  <si>
+    <t>高松市多肥上町１６３９－５</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 070-8419-5640</t>
+  </si>
+  <si>
+    <t>2025/4/1</t>
+  </si>
+  <si>
+    <t>新規マップピン</t>
+  </si>
+  <si>
     <t>代表取締役　島　隆寛</t>
-  </si>
-  <si>
-    <t>34.343695</t>
-  </si>
-  <si>
-    <t>134.005401</t>
-  </si>
-  <si>
-    <t>087-804-7270</t>
-  </si>
-  <si>
-    <t>2023/1/10</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>広田技工所</t>
-  </si>
-  <si>
-    <t>小川　慈男</t>
-  </si>
-  <si>
-    <t>34.283351</t>
-  </si>
-  <si>
-    <t>134.043396</t>
-  </si>
-  <si>
-    <t>香川県高松市仏生山町甲３２３番地</t>
-  </si>
-  <si>
-    <t>087-889-1010</t>
-  </si>
-  <si>
-    <t>1993/5/1</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>凪</t>
-  </si>
-  <si>
-    <t>岩田　力</t>
-  </si>
-  <si>
-    <t>34.397641</t>
-  </si>
-  <si>
-    <t>134.130906</t>
-  </si>
-  <si>
-    <t>香川県高松市庵治町５４５５番地１</t>
-  </si>
-  <si>
-    <t>2023/4/8</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>オカダデンタルラボラトリー</t>
-  </si>
-  <si>
-    <t>34.333779</t>
-  </si>
-  <si>
-    <t>134.117562</t>
-  </si>
-  <si>
-    <t>香川県高松市高松町１４６４番地１３</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>ＳＭＬデンタルラボラトリー</t>
-  </si>
-  <si>
-    <t>多田　祐介</t>
-  </si>
-  <si>
-    <t>34.324089</t>
-  </si>
-  <si>
-    <t>134.103766</t>
-  </si>
-  <si>
-    <t>香川県高松市新田町甲６１４番地８</t>
-  </si>
-  <si>
-    <t>2024/3/21</t>
-  </si>
-  <si>
-    <t>株式会社WILLE　</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>香川県高松市香西東町３１５番地10</t>
-    <rPh sb="0" eb="3">
-      <t>カガワケン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>タカマツシ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>コウザイヒガシマチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡田　秀夫</t>
-    <rPh sb="3" eb="5">
-      <t>ヒデオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>株式会社Doデンタルラボ</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>株式会社Doデンタルラボ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>香川県高松市木太町２３３６番地１</t>
-    <rPh sb="0" eb="9">
-      <t>７６０－００８０</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>1985/1/0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>フェルナ　ベイル　Dentai Laboratory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>江戸　良太</t>
-    <rPh sb="0" eb="2">
-      <t>エド</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リョウタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>香川県高松市国分寺町新居1761-1</t>
-    <rPh sb="0" eb="3">
-      <t>カガワケン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>タカマツシ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>コクブンジチョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>アライ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デンチャーラボ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山地　圭三</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>香川県高松市木太町３６１１－1</t>
-    <rPh sb="0" eb="3">
-      <t>カガワケン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>タカマツシ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>キタチョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1982,26 +1968,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2340,2374 +2308,2430 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:I82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.796875" style="2"/>
-    <col min="2" max="2" width="34.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="I8" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="I9" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="I10" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C11" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="G11" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="H11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="I11" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="H12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="I12" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C13" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="I13" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C14" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="G14" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="I14" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="C15" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="H15" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="I15" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B16" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="G16" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="I16" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C17" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
         <v>133</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" t="s">
         <v>135</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="H17" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="I17" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C18" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" t="s">
         <v>142</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" t="s">
         <v>143</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="H18" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="I18" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="C19" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" t="s">
         <v>151</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="H19" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="I19" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="B20" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" t="s">
         <v>157</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" t="s">
         <v>158</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="G20" t="s">
         <v>159</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="H20" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="I20" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" t="s">
         <v>163</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C21" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" t="s">
         <v>166</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="G21" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" t="s">
         <v>170</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C22" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="G22" t="s">
         <v>174</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="H22" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="I22" t="s">
         <v>176</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="C23" t="s">
         <v>179</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="F23" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="G23" t="s">
         <v>182</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="H23" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>184</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="C24" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
         <v>187</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="F24" t="s">
         <v>188</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="G24" t="s">
         <v>189</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="H24" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="I24" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C25" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
         <v>195</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" t="s">
         <v>196</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="G25" t="s">
         <v>197</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="H25" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="I25" t="s">
         <v>199</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" t="s">
         <v>201</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="C26" t="s">
         <v>202</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
         <v>203</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="F26" t="s">
         <v>204</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="G26" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" t="s">
         <v>208</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="C27" t="s">
         <v>209</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
         <v>210</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="F27" t="s">
         <v>211</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="G27" t="s">
+        <v>212</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
+        <v>219</v>
+      </c>
+      <c r="H28" t="s">
+        <v>220</v>
+      </c>
+      <c r="I28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" t="s">
+        <v>228</v>
+      </c>
+      <c r="I29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G30" t="s">
+        <v>235</v>
+      </c>
+      <c r="H30" t="s">
+        <v>236</v>
+      </c>
+      <c r="I30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>241</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>243</v>
+      </c>
+      <c r="H31" t="s">
+        <v>244</v>
+      </c>
+      <c r="I31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32" t="s">
+        <v>251</v>
+      </c>
+      <c r="I32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>256</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>258</v>
+      </c>
+      <c r="H33" t="s">
+        <v>259</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C34" t="s">
+        <v>263</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>264</v>
+      </c>
+      <c r="F34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" t="s">
+        <v>273</v>
+      </c>
+      <c r="H35" t="s">
+        <v>274</v>
+      </c>
+      <c r="I35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" t="s">
+        <v>278</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>279</v>
+      </c>
+      <c r="F36" t="s">
+        <v>280</v>
+      </c>
+      <c r="G36" t="s">
+        <v>281</v>
+      </c>
+      <c r="H36" t="s">
+        <v>282</v>
+      </c>
+      <c r="I36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>284</v>
+      </c>
+      <c r="B37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>287</v>
+      </c>
+      <c r="F37" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" t="s">
+        <v>289</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>294</v>
+      </c>
+      <c r="F38" t="s">
+        <v>295</v>
+      </c>
+      <c r="G38" t="s">
+        <v>296</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" t="s">
+        <v>300</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>301</v>
+      </c>
+      <c r="F39" t="s">
+        <v>302</v>
+      </c>
+      <c r="G39" t="s">
+        <v>303</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>305</v>
+      </c>
+      <c r="B40" t="s">
+        <v>306</v>
+      </c>
+      <c r="C40" t="s">
+        <v>306</v>
+      </c>
+      <c r="D40" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" t="s">
+        <v>310</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>312</v>
+      </c>
+      <c r="B41" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" t="s">
+        <v>313</v>
+      </c>
+      <c r="D41" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" t="s">
+        <v>315</v>
+      </c>
+      <c r="F41" t="s">
+        <v>316</v>
+      </c>
+      <c r="G41" t="s">
+        <v>317</v>
+      </c>
+      <c r="H41" t="s">
+        <v>318</v>
+      </c>
+      <c r="I41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>320</v>
+      </c>
+      <c r="B42" t="s">
+        <v>321</v>
+      </c>
+      <c r="C42" t="s">
+        <v>322</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>323</v>
+      </c>
+      <c r="F42" t="s">
+        <v>324</v>
+      </c>
+      <c r="G42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H42" t="s">
+        <v>326</v>
+      </c>
+      <c r="I42" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43" t="s">
+        <v>329</v>
+      </c>
+      <c r="C43" t="s">
+        <v>330</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>331</v>
+      </c>
+      <c r="F43" t="s">
+        <v>332</v>
+      </c>
+      <c r="G43" t="s">
+        <v>333</v>
+      </c>
+      <c r="H43" t="s">
+        <v>334</v>
+      </c>
+      <c r="I43" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>336</v>
+      </c>
+      <c r="B44" t="s">
+        <v>337</v>
+      </c>
+      <c r="C44" t="s">
+        <v>338</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>339</v>
+      </c>
+      <c r="F44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" t="s">
+        <v>341</v>
+      </c>
+      <c r="H44" t="s">
+        <v>342</v>
+      </c>
+      <c r="I44" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>344</v>
+      </c>
+      <c r="B45" t="s">
+        <v>345</v>
+      </c>
+      <c r="C45" t="s">
+        <v>345</v>
+      </c>
+      <c r="D45" t="s">
+        <v>346</v>
+      </c>
+      <c r="E45" t="s">
+        <v>347</v>
+      </c>
+      <c r="F45" t="s">
+        <v>348</v>
+      </c>
+      <c r="G45" t="s">
+        <v>349</v>
+      </c>
+      <c r="H45" t="s">
+        <v>350</v>
+      </c>
+      <c r="I45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>352</v>
+      </c>
+      <c r="B46" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" t="s">
+        <v>354</v>
+      </c>
+      <c r="D46" t="s">
+        <v>355</v>
+      </c>
+      <c r="E46" t="s">
+        <v>356</v>
+      </c>
+      <c r="F46" t="s">
+        <v>357</v>
+      </c>
+      <c r="G46" t="s">
+        <v>358</v>
+      </c>
+      <c r="H46" t="s">
+        <v>359</v>
+      </c>
+      <c r="I46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>361</v>
+      </c>
+      <c r="B47" t="s">
+        <v>362</v>
+      </c>
+      <c r="C47" t="s">
+        <v>363</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>364</v>
+      </c>
+      <c r="F47" t="s">
+        <v>365</v>
+      </c>
+      <c r="G47" t="s">
+        <v>366</v>
+      </c>
+      <c r="H47" t="s">
+        <v>367</v>
+      </c>
+      <c r="I47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>369</v>
+      </c>
+      <c r="B48" t="s">
+        <v>370</v>
+      </c>
+      <c r="C48" t="s">
+        <v>371</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>372</v>
+      </c>
+      <c r="F48" t="s">
+        <v>373</v>
+      </c>
+      <c r="G48" t="s">
+        <v>374</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>376</v>
+      </c>
+      <c r="B49" t="s">
+        <v>377</v>
+      </c>
+      <c r="C49" t="s">
+        <v>378</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>379</v>
+      </c>
+      <c r="F49" t="s">
+        <v>380</v>
+      </c>
+      <c r="G49" t="s">
+        <v>381</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>383</v>
+      </c>
+      <c r="B50" t="s">
+        <v>384</v>
+      </c>
+      <c r="C50" t="s">
+        <v>384</v>
+      </c>
+      <c r="D50" t="s">
+        <v>385</v>
+      </c>
+      <c r="E50" t="s">
+        <v>386</v>
+      </c>
+      <c r="F50" t="s">
+        <v>387</v>
+      </c>
+      <c r="G50" t="s">
+        <v>388</v>
+      </c>
+      <c r="H50" t="s">
+        <v>389</v>
+      </c>
+      <c r="I50" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>391</v>
+      </c>
+      <c r="B51" t="s">
+        <v>392</v>
+      </c>
+      <c r="C51" t="s">
+        <v>393</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>394</v>
+      </c>
+      <c r="F51" t="s">
+        <v>395</v>
+      </c>
+      <c r="G51" t="s">
+        <v>396</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>398</v>
+      </c>
+      <c r="B52" t="s">
+        <v>399</v>
+      </c>
+      <c r="C52" t="s">
+        <v>400</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>401</v>
+      </c>
+      <c r="F52" t="s">
+        <v>402</v>
+      </c>
+      <c r="G52" t="s">
+        <v>403</v>
+      </c>
+      <c r="H52" t="s">
+        <v>404</v>
+      </c>
+      <c r="I52" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>406</v>
+      </c>
+      <c r="B53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C53" t="s">
+        <v>408</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>409</v>
+      </c>
+      <c r="F53" t="s">
+        <v>410</v>
+      </c>
+      <c r="G53" t="s">
+        <v>411</v>
+      </c>
+      <c r="H53" t="s">
+        <v>412</v>
+      </c>
+      <c r="I53" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>414</v>
+      </c>
+      <c r="B54" t="s">
+        <v>415</v>
+      </c>
+      <c r="C54" t="s">
+        <v>416</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>417</v>
+      </c>
+      <c r="F54" t="s">
+        <v>418</v>
+      </c>
+      <c r="G54" t="s">
+        <v>419</v>
+      </c>
+      <c r="H54" t="s">
+        <v>420</v>
+      </c>
+      <c r="I54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>422</v>
+      </c>
+      <c r="B55" t="s">
+        <v>423</v>
+      </c>
+      <c r="C55" t="s">
+        <v>424</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>425</v>
+      </c>
+      <c r="F55" t="s">
+        <v>426</v>
+      </c>
+      <c r="G55" t="s">
+        <v>427</v>
+      </c>
+      <c r="H55" t="s">
+        <v>428</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>429</v>
+      </c>
+      <c r="B56" t="s">
+        <v>430</v>
+      </c>
+      <c r="C56" t="s">
+        <v>431</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>432</v>
+      </c>
+      <c r="F56" t="s">
+        <v>433</v>
+      </c>
+      <c r="G56" t="s">
+        <v>434</v>
+      </c>
+      <c r="H56" t="s">
+        <v>435</v>
+      </c>
+      <c r="I56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>437</v>
+      </c>
+      <c r="B57" t="s">
+        <v>438</v>
+      </c>
+      <c r="C57" t="s">
+        <v>439</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>440</v>
+      </c>
+      <c r="F57" t="s">
+        <v>441</v>
+      </c>
+      <c r="G57" t="s">
+        <v>442</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>444</v>
+      </c>
+      <c r="B58" t="s">
+        <v>445</v>
+      </c>
+      <c r="C58" t="s">
+        <v>445</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>446</v>
+      </c>
+      <c r="F58" t="s">
+        <v>447</v>
+      </c>
+      <c r="G58" t="s">
+        <v>448</v>
+      </c>
+      <c r="H58" t="s">
+        <v>449</v>
+      </c>
+      <c r="I58" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>451</v>
+      </c>
+      <c r="B59" t="s">
+        <v>452</v>
+      </c>
+      <c r="C59" t="s">
+        <v>453</v>
+      </c>
+      <c r="D59" t="s">
+        <v>454</v>
+      </c>
+      <c r="E59" t="s">
+        <v>455</v>
+      </c>
+      <c r="F59" t="s">
+        <v>456</v>
+      </c>
+      <c r="G59" t="s">
+        <v>457</v>
+      </c>
+      <c r="H59" t="s">
+        <v>458</v>
+      </c>
+      <c r="I59" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>460</v>
+      </c>
+      <c r="B60" t="s">
+        <v>461</v>
+      </c>
+      <c r="C60" t="s">
+        <v>462</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>463</v>
+      </c>
+      <c r="F60" t="s">
+        <v>464</v>
+      </c>
+      <c r="G60" t="s">
+        <v>465</v>
+      </c>
+      <c r="H60" t="s">
+        <v>466</v>
+      </c>
+      <c r="I60" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>467</v>
+      </c>
+      <c r="B61" t="s">
+        <v>468</v>
+      </c>
+      <c r="C61" t="s">
+        <v>469</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>470</v>
+      </c>
+      <c r="F61" t="s">
+        <v>471</v>
+      </c>
+      <c r="G61" t="s">
+        <v>472</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>474</v>
+      </c>
+      <c r="B62" t="s">
+        <v>475</v>
+      </c>
+      <c r="C62" t="s">
+        <v>475</v>
+      </c>
+      <c r="D62" t="s">
+        <v>476</v>
+      </c>
+      <c r="E62" t="s">
+        <v>477</v>
+      </c>
+      <c r="F62" t="s">
+        <v>478</v>
+      </c>
+      <c r="G62" t="s">
+        <v>479</v>
+      </c>
+      <c r="H62" t="s">
+        <v>480</v>
+      </c>
+      <c r="I62" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>482</v>
+      </c>
+      <c r="B63" t="s">
+        <v>483</v>
+      </c>
+      <c r="C63" t="s">
+        <v>483</v>
+      </c>
+      <c r="D63" t="s">
+        <v>484</v>
+      </c>
+      <c r="E63" t="s">
+        <v>485</v>
+      </c>
+      <c r="F63" t="s">
+        <v>486</v>
+      </c>
+      <c r="G63" t="s">
+        <v>487</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>489</v>
+      </c>
+      <c r="B64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C64" t="s">
+        <v>491</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>492</v>
+      </c>
+      <c r="F64" t="s">
+        <v>493</v>
+      </c>
+      <c r="G64" t="s">
+        <v>494</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>496</v>
+      </c>
+      <c r="B65" t="s">
+        <v>497</v>
+      </c>
+      <c r="C65" t="s">
+        <v>498</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>499</v>
+      </c>
+      <c r="F65" t="s">
+        <v>500</v>
+      </c>
+      <c r="G65" t="s">
+        <v>501</v>
+      </c>
+      <c r="H65" t="s">
+        <v>502</v>
+      </c>
+      <c r="I65" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>504</v>
+      </c>
+      <c r="B66" t="s">
+        <v>505</v>
+      </c>
+      <c r="C66" t="s">
+        <v>506</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>507</v>
+      </c>
+      <c r="F66" t="s">
+        <v>508</v>
+      </c>
+      <c r="G66" t="s">
+        <v>509</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>511</v>
+      </c>
+      <c r="B67" t="s">
+        <v>512</v>
+      </c>
+      <c r="C67" t="s">
+        <v>513</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>514</v>
+      </c>
+      <c r="F67" t="s">
+        <v>515</v>
+      </c>
+      <c r="G67" t="s">
+        <v>516</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>518</v>
+      </c>
+      <c r="B68" t="s">
+        <v>519</v>
+      </c>
+      <c r="C68" t="s">
+        <v>520</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>521</v>
+      </c>
+      <c r="F68" t="s">
+        <v>522</v>
+      </c>
+      <c r="G68" t="s">
+        <v>523</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>525</v>
+      </c>
+      <c r="B69" t="s">
+        <v>526</v>
+      </c>
+      <c r="C69" t="s">
+        <v>526</v>
+      </c>
+      <c r="D69" t="s">
+        <v>527</v>
+      </c>
+      <c r="E69" t="s">
+        <v>528</v>
+      </c>
+      <c r="F69" t="s">
+        <v>529</v>
+      </c>
+      <c r="G69" t="s">
+        <v>530</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>532</v>
+      </c>
+      <c r="B70" t="s">
+        <v>533</v>
+      </c>
+      <c r="C70" t="s">
+        <v>534</v>
+      </c>
+      <c r="D70" t="s">
+        <v>535</v>
+      </c>
+      <c r="E70" t="s">
+        <v>536</v>
+      </c>
+      <c r="F70" t="s">
+        <v>537</v>
+      </c>
+      <c r="G70" t="s">
+        <v>538</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>540</v>
+      </c>
+      <c r="B71" t="s">
+        <v>541</v>
+      </c>
+      <c r="C71" t="s">
+        <v>542</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>543</v>
+      </c>
+      <c r="F71" t="s">
+        <v>544</v>
+      </c>
+      <c r="G71" t="s">
+        <v>545</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>547</v>
+      </c>
+      <c r="B72" t="s">
+        <v>548</v>
+      </c>
+      <c r="C72" t="s">
+        <v>549</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>550</v>
+      </c>
+      <c r="F72" t="s">
+        <v>551</v>
+      </c>
+      <c r="G72" t="s">
+        <v>552</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>554</v>
+      </c>
+      <c r="B73" t="s">
+        <v>555</v>
+      </c>
+      <c r="C73" t="s">
+        <v>556</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>557</v>
+      </c>
+      <c r="F73" t="s">
+        <v>558</v>
+      </c>
+      <c r="G73" t="s">
+        <v>559</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>561</v>
+      </c>
+      <c r="B74" t="s">
+        <v>562</v>
+      </c>
+      <c r="C74" t="s">
+        <v>563</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>564</v>
+      </c>
+      <c r="F74" t="s">
+        <v>565</v>
+      </c>
+      <c r="G74" t="s">
+        <v>566</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>568</v>
+      </c>
+      <c r="B75" t="s">
+        <v>569</v>
+      </c>
+      <c r="C75" t="s">
+        <v>570</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>571</v>
+      </c>
+      <c r="F75" t="s">
+        <v>572</v>
+      </c>
+      <c r="G75" t="s">
+        <v>573</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>575</v>
+      </c>
+      <c r="B76" t="s">
+        <v>576</v>
+      </c>
+      <c r="C76" t="s">
+        <v>577</v>
+      </c>
+      <c r="D76" t="s">
+        <v>634</v>
+      </c>
+      <c r="E76" t="s">
+        <v>578</v>
+      </c>
+      <c r="F76" t="s">
+        <v>579</v>
+      </c>
+      <c r="G76" t="s">
+        <v>580</v>
+      </c>
+      <c r="H76" t="s">
+        <v>581</v>
+      </c>
+      <c r="I76" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>583</v>
+      </c>
+      <c r="B77" t="s">
+        <v>584</v>
+      </c>
+      <c r="C77" t="s">
+        <v>585</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>586</v>
+      </c>
+      <c r="F77" t="s">
+        <v>587</v>
+      </c>
+      <c r="G77" t="s">
+        <v>588</v>
+      </c>
+      <c r="H77" t="s">
+        <v>589</v>
+      </c>
+      <c r="I77" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>591</v>
+      </c>
+      <c r="B78" t="s">
+        <v>592</v>
+      </c>
+      <c r="C78" t="s">
+        <v>593</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>594</v>
+      </c>
+      <c r="F78" t="s">
+        <v>595</v>
+      </c>
+      <c r="G78" t="s">
+        <v>596</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>598</v>
+      </c>
+      <c r="B79" t="s">
+        <v>599</v>
+      </c>
+      <c r="C79" t="s">
+        <v>600</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>601</v>
+      </c>
+      <c r="F79" t="s">
+        <v>602</v>
+      </c>
+      <c r="G79" t="s">
+        <v>603</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>605</v>
+      </c>
+      <c r="B80" t="s">
+        <v>606</v>
+      </c>
+      <c r="C80" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>608</v>
+      </c>
+      <c r="F80" t="s">
+        <v>609</v>
+      </c>
+      <c r="G80" t="s">
+        <v>610</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>612</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="B81" t="s">
         <v>613</v>
       </c>
-      <c r="E48" s="1">
-        <v>34.325445999999999</v>
-      </c>
-      <c r="F48" s="1">
-        <v>134.07985099999999</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="C81" t="s">
+        <v>613</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
         <v>614</v>
       </c>
-      <c r="I48" s="3">
-        <v>32964</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="I58" s="3">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="3">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="E81" s="4">
-        <v>34.335580999999998</v>
-      </c>
-      <c r="F81" s="4">
-        <v>134.072305</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="I81" s="3">
-        <v>45562</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="E82" s="4">
-        <v>34.302599000000001</v>
-      </c>
-      <c r="F82" s="6">
-        <v>133.95939100000001</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="I82" s="3">
-        <v>45658</v>
+      <c r="F81" t="s">
+        <v>615</v>
+      </c>
+      <c r="G81" t="s">
+        <v>616</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>618</v>
+      </c>
+      <c r="B82" t="s">
+        <v>619</v>
+      </c>
+      <c r="C82" t="s">
+        <v>620</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>621</v>
+      </c>
+      <c r="F82" t="s">
+        <v>622</v>
+      </c>
+      <c r="G82" t="s">
+        <v>623</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>625</v>
+      </c>
+      <c r="B83" t="s">
+        <v>626</v>
+      </c>
+      <c r="C83" t="s">
+        <v>627</v>
+      </c>
+      <c r="E83" t="s">
+        <v>628</v>
+      </c>
+      <c r="F83" t="s">
+        <v>629</v>
+      </c>
+      <c r="G83" t="s">
+        <v>630</v>
+      </c>
+      <c r="H83" t="s">
+        <v>631</v>
+      </c>
+      <c r="I83" t="s">
+        <v>632</v>
+      </c>
+      <c r="J83" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I82"/>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J75 A77:J83 A76:C76 E76:J76" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/dental_laboratories/data.xlsx
+++ b/data/dental_laboratories/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\オープンデータ更新（一時保管）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\52845\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D7B3CD-401F-4743-A7A5-2E99677BA3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="635">
   <si>
     <t>№</t>
   </si>
@@ -1756,6 +1755,9 @@
     <t>株式会社シケン</t>
   </si>
   <si>
+    <t>代表取締役　島　隆寛</t>
+  </si>
+  <si>
     <t>34.343695</t>
   </si>
   <si>
@@ -1912,7 +1914,7 @@
     <t>134.05891</t>
   </si>
   <si>
-    <t>高松市多肥上町１６３９－５</t>
+    <t>高松市多肥上町１６３９−５</t>
   </si>
   <si>
     <t xml:space="preserve"> 070-8419-5640</t>
@@ -1922,16 +1924,12 @@
   </si>
   <si>
     <t>新規マップピン</t>
-  </si>
-  <si>
-    <t>代表取締役　島　隆寛</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1948,12 +1946,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1968,8 +1972,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2308,2430 +2314,2683 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="64.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.796875" style="2"/>
+    <col min="7" max="7" width="64.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.796875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="J11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>99</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>106</v>
       </c>
       <c r="B14" t="s">
         <v>107</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>115</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>122</v>
       </c>
       <c r="B16" t="s">
         <v>123</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J16" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>131</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>138</v>
       </c>
       <c r="B18" t="s">
         <v>139</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>146</v>
       </c>
       <c r="B19" t="s">
         <v>147</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>154</v>
       </c>
       <c r="B20" t="s">
         <v>155</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>162</v>
       </c>
       <c r="B21" t="s">
         <v>163</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>169</v>
       </c>
       <c r="B22" t="s">
         <v>170</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>177</v>
       </c>
       <c r="B23" t="s">
         <v>178</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>184</v>
       </c>
       <c r="B24" t="s">
         <v>185</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>192</v>
       </c>
       <c r="B25" t="s">
         <v>193</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>200</v>
       </c>
       <c r="B26" t="s">
         <v>201</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J26" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>207</v>
       </c>
       <c r="B27" t="s">
         <v>208</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>214</v>
       </c>
       <c r="B28" t="s">
         <v>215</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>222</v>
       </c>
       <c r="B29" t="s">
         <v>223</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>230</v>
       </c>
       <c r="B30" t="s">
         <v>231</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>238</v>
       </c>
       <c r="B31" t="s">
         <v>239</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>245</v>
       </c>
       <c r="B32" t="s">
         <v>246</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>253</v>
       </c>
       <c r="B33" t="s">
         <v>254</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>261</v>
       </c>
       <c r="B34" t="s">
         <v>262</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>268</v>
       </c>
       <c r="B35" t="s">
         <v>269</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>276</v>
       </c>
       <c r="B36" t="s">
         <v>277</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>284</v>
       </c>
       <c r="B37" t="s">
         <v>285</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>291</v>
       </c>
       <c r="B38" t="s">
         <v>292</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>298</v>
       </c>
       <c r="B39" t="s">
         <v>299</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="H39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J39" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>305</v>
       </c>
       <c r="B40" t="s">
         <v>306</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>312</v>
       </c>
       <c r="B41" t="s">
         <v>313</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>320</v>
       </c>
       <c r="B42" t="s">
         <v>321</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J42" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>328</v>
       </c>
       <c r="B43" t="s">
         <v>329</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J43" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>336</v>
       </c>
       <c r="B44" t="s">
         <v>337</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J44" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>344</v>
       </c>
       <c r="B45" t="s">
         <v>345</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>352</v>
       </c>
       <c r="B46" t="s">
         <v>353</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>361</v>
       </c>
       <c r="B47" t="s">
         <v>362</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J47" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>369</v>
       </c>
       <c r="B48" t="s">
         <v>370</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="H48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J48" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>376</v>
       </c>
       <c r="B49" t="s">
         <v>377</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="H49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J49" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>383</v>
       </c>
       <c r="B50" t="s">
         <v>384</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="2" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J50" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>391</v>
       </c>
       <c r="B51" t="s">
         <v>392</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="H51" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="H51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J51" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>398</v>
       </c>
       <c r="B52" t="s">
         <v>399</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="D52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J52" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>406</v>
       </c>
       <c r="B53" t="s">
         <v>407</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="D53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J53" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>414</v>
       </c>
       <c r="B54" t="s">
         <v>415</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="D54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J54" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>422</v>
       </c>
       <c r="B55" t="s">
         <v>423</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="D55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="I55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="I55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>429</v>
       </c>
       <c r="B56" t="s">
         <v>430</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J56" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>437</v>
       </c>
       <c r="B57" t="s">
         <v>438</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D57" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="D57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="H57" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="H57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J57" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>444</v>
       </c>
       <c r="B58" t="s">
         <v>445</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J58" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>451</v>
       </c>
       <c r="B59" t="s">
         <v>452</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J59" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>460</v>
       </c>
       <c r="B60" t="s">
         <v>461</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D60" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J60" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>467</v>
       </c>
       <c r="B61" t="s">
         <v>468</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="H61" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="H61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J61" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>474</v>
       </c>
       <c r="B62" t="s">
         <v>475</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J62" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>482</v>
       </c>
       <c r="B63" t="s">
         <v>483</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="H63" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="H63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J63" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>489</v>
       </c>
       <c r="B64" t="s">
         <v>490</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="H64" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="H64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J64" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>496</v>
       </c>
       <c r="B65" t="s">
         <v>497</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D65" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J65" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>504</v>
       </c>
       <c r="B66" t="s">
         <v>505</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D66" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="H66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="H66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J66" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>511</v>
       </c>
       <c r="B67" t="s">
         <v>512</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D67" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="D67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="H67" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="H67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J67" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>518</v>
       </c>
       <c r="B68" t="s">
         <v>519</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H68" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="H68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J68" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>525</v>
       </c>
       <c r="B69" t="s">
         <v>526</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="H69" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="H69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J69" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>532</v>
       </c>
       <c r="B70" t="s">
         <v>533</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="H70" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="H70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J70" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>540</v>
       </c>
       <c r="B71" t="s">
         <v>541</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D71" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="D71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="H71" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="H71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J71" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>547</v>
       </c>
       <c r="B72" t="s">
         <v>548</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D72" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="H72" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="H72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J72" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>554</v>
       </c>
       <c r="B73" t="s">
         <v>555</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D73" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="H73" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="H73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J73" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>561</v>
       </c>
       <c r="B74" t="s">
         <v>562</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D74" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="D74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="H74" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="H74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="J74" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>568</v>
       </c>
       <c r="B75" t="s">
         <v>569</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="D75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="H75" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="H75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="J75" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>584</v>
+      </c>
+      <c r="B77" t="s">
+        <v>585</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>592</v>
+      </c>
+      <c r="B78" t="s">
+        <v>593</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>599</v>
+      </c>
+      <c r="B79" t="s">
+        <v>600</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>606</v>
+      </c>
+      <c r="B80" t="s">
+        <v>607</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>613</v>
+      </c>
+      <c r="B81" t="s">
+        <v>614</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>619</v>
+      </c>
+      <c r="B82" t="s">
+        <v>620</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>626</v>
+      </c>
+      <c r="B83" t="s">
+        <v>627</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="E76" t="s">
-        <v>578</v>
-      </c>
-      <c r="F76" t="s">
-        <v>579</v>
-      </c>
-      <c r="G76" t="s">
-        <v>580</v>
-      </c>
-      <c r="H76" t="s">
-        <v>581</v>
-      </c>
-      <c r="I76" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>583</v>
-      </c>
-      <c r="B77" t="s">
-        <v>584</v>
-      </c>
-      <c r="C77" t="s">
-        <v>585</v>
-      </c>
-      <c r="D77" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" t="s">
-        <v>586</v>
-      </c>
-      <c r="F77" t="s">
-        <v>587</v>
-      </c>
-      <c r="G77" t="s">
-        <v>588</v>
-      </c>
-      <c r="H77" t="s">
-        <v>589</v>
-      </c>
-      <c r="I77" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>591</v>
-      </c>
-      <c r="B78" t="s">
-        <v>592</v>
-      </c>
-      <c r="C78" t="s">
-        <v>593</v>
-      </c>
-      <c r="D78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" t="s">
-        <v>594</v>
-      </c>
-      <c r="F78" t="s">
-        <v>595</v>
-      </c>
-      <c r="G78" t="s">
-        <v>596</v>
-      </c>
-      <c r="H78" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>598</v>
-      </c>
-      <c r="B79" t="s">
-        <v>599</v>
-      </c>
-      <c r="C79" t="s">
-        <v>600</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" t="s">
-        <v>601</v>
-      </c>
-      <c r="F79" t="s">
-        <v>602</v>
-      </c>
-      <c r="G79" t="s">
-        <v>603</v>
-      </c>
-      <c r="H79" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>605</v>
-      </c>
-      <c r="B80" t="s">
-        <v>606</v>
-      </c>
-      <c r="C80" t="s">
-        <v>607</v>
-      </c>
-      <c r="D80" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" t="s">
-        <v>608</v>
-      </c>
-      <c r="F80" t="s">
-        <v>609</v>
-      </c>
-      <c r="G80" t="s">
-        <v>610</v>
-      </c>
-      <c r="H80" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>612</v>
-      </c>
-      <c r="B81" t="s">
-        <v>613</v>
-      </c>
-      <c r="C81" t="s">
-        <v>613</v>
-      </c>
-      <c r="D81" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" t="s">
-        <v>614</v>
-      </c>
-      <c r="F81" t="s">
-        <v>615</v>
-      </c>
-      <c r="G81" t="s">
-        <v>616</v>
-      </c>
-      <c r="H81" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>618</v>
-      </c>
-      <c r="B82" t="s">
-        <v>619</v>
-      </c>
-      <c r="C82" t="s">
-        <v>620</v>
-      </c>
-      <c r="D82" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" t="s">
-        <v>621</v>
-      </c>
-      <c r="F82" t="s">
-        <v>622</v>
-      </c>
-      <c r="G82" t="s">
-        <v>623</v>
-      </c>
-      <c r="H82" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>625</v>
-      </c>
-      <c r="B83" t="s">
-        <v>626</v>
-      </c>
-      <c r="C83" t="s">
-        <v>627</v>
-      </c>
-      <c r="E83" t="s">
-        <v>628</v>
-      </c>
-      <c r="F83" t="s">
-        <v>629</v>
-      </c>
-      <c r="G83" t="s">
-        <v>630</v>
-      </c>
-      <c r="H83" t="s">
-        <v>631</v>
-      </c>
-      <c r="I83" t="s">
-        <v>632</v>
-      </c>
-      <c r="J83" t="s">
-        <v>633</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J75 A77:J83 A76:C76 E76:J76" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J83" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/dental_laboratories/data.xlsx
+++ b/data/dental_laboratories/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\52845\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\オープンデータ更新（一時保管）\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE22BE0E-F1EF-41C6-BEF8-30D3CC7CBA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="619">
   <si>
     <t>№</t>
   </si>
@@ -51,33 +52,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>ＭＤアートラボラトリ</t>
-  </si>
-  <si>
-    <t>入星　武</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>34.327561</t>
-  </si>
-  <si>
-    <t>134.072296</t>
-  </si>
-  <si>
-    <t>香川県高松市木太町２区１２０９番地５</t>
-  </si>
-  <si>
-    <t>087-866-6488</t>
-  </si>
-  <si>
-    <t>1977/4/1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -289,30 +266,6 @@
   </si>
   <si>
     <t>1992/5/1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>遠藤歯科技工所</t>
-  </si>
-  <si>
-    <t>遠藤　人志</t>
-  </si>
-  <si>
-    <t>34.264502</t>
-  </si>
-  <si>
-    <t>134.087561</t>
-  </si>
-  <si>
-    <t>香川県高松市池田町１３５８番地２</t>
-  </si>
-  <si>
-    <t>087-848-0446</t>
-  </si>
-  <si>
-    <t>1993/5/11</t>
   </si>
   <si>
     <t>12</t>
@@ -1929,7 +1882,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1946,18 +1899,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1972,10 +1919,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2314,19 +2259,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="64.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.796875" style="2"/>
-    <col min="7" max="7" width="64.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="8.796875" style="2"/>
+    <col min="7" max="7" width="64.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2336,61 +2279,61 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
+      <c r="J2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2400,29 +2343,29 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>13</v>
+      <c r="J3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2432,61 +2375,61 @@
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>13</v>
+      <c r="J4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>13</v>
+      <c r="J5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2496,29 +2439,29 @@
       <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>13</v>
+      <c r="J6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2528,29 +2471,29 @@
       <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>13</v>
+      <c r="J7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2560,29 +2503,29 @@
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>13</v>
+      <c r="J8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2592,29 +2535,29 @@
       <c r="B9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>13</v>
+      <c r="J9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2624,29 +2567,29 @@
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>13</v>
+      <c r="J10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2656,61 +2599,61 @@
       <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>13</v>
+      <c r="J11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>13</v>
+      <c r="J12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2720,29 +2663,29 @@
       <c r="B13" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" t="s">
         <v>105</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>13</v>
+      <c r="J13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2752,29 +2695,29 @@
       <c r="B14" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>113</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>13</v>
+      <c r="J14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2784,29 +2727,29 @@
       <c r="B15" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" t="s">
         <v>121</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>13</v>
+      <c r="J15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2816,29 +2759,29 @@
       <c r="B16" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" t="s">
         <v>129</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>13</v>
+      <c r="J16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2848,29 +2791,29 @@
       <c r="B17" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" t="s">
         <v>136</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" t="s">
         <v>137</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>13</v>
+      <c r="J17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2880,29 +2823,29 @@
       <c r="B18" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>143</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>144</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" t="s">
         <v>145</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>13</v>
+      <c r="J18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2912,157 +2855,157 @@
       <c r="B19" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>13</v>
+      <c r="J19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
         <v>154</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" t="s">
         <v>157</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" t="s">
         <v>160</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>13</v>
+      <c r="J20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" t="s">
         <v>162</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
         <v>164</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" t="s">
         <v>167</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>13</v>
+      <c r="I21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
         <v>169</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" t="s">
         <v>172</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" t="s">
         <v>174</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" t="s">
         <v>175</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>13</v>
+      <c r="J22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" t="s">
         <v>177</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" t="s">
         <v>180</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" t="s">
         <v>181</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" t="s">
         <v>182</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" t="s">
         <v>183</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>13</v>
+      <c r="J23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -3072,125 +3015,125 @@
       <c r="B24" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
         <v>187</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" t="s">
         <v>189</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
         <v>190</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>13</v>
+      <c r="J24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" t="s">
         <v>192</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>193</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" t="s">
         <v>195</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" t="s">
         <v>196</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
         <v>197</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>13</v>
+      <c r="J25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" t="s">
         <v>200</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
         <v>201</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="F26" t="s">
         <v>202</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="G26" t="s">
         <v>203</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" t="s">
         <v>204</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="I26" t="s">
         <v>205</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>13</v>
+      <c r="J26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" t="s">
         <v>207</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>208</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
         <v>209</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" t="s">
         <v>210</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" t="s">
         <v>211</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" t="s">
         <v>212</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" t="s">
         <v>213</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>13</v>
+      <c r="J27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3200,29 +3143,29 @@
       <c r="B28" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
         <v>217</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
         <v>218</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" t="s">
         <v>219</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" t="s">
         <v>220</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" t="s">
         <v>221</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>13</v>
+      <c r="J28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3232,93 +3175,93 @@
       <c r="B29" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
         <v>225</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s">
         <v>226</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" t="s">
         <v>227</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" t="s">
         <v>228</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>13</v>
+      <c r="I29" t="s">
+        <v>152</v>
+      </c>
+      <c r="J29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" t="s">
         <v>230</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" t="s">
         <v>233</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" t="s">
         <v>234</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" t="s">
         <v>235</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" t="s">
         <v>236</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>13</v>
+      <c r="J30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" t="s">
         <v>238</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
         <v>240</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" t="s">
         <v>241</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" t="s">
         <v>242</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" t="s">
         <v>243</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" t="s">
         <v>244</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>13</v>
+      <c r="J31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -3328,93 +3271,93 @@
       <c r="B32" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>247</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
         <v>248</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" t="s">
         <v>249</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" t="s">
         <v>250</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
         <v>251</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>13</v>
+      <c r="J32" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" t="s">
         <v>253</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
         <v>255</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" t="s">
         <v>256</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" t="s">
         <v>257</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" t="s">
         <v>258</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" t="s">
         <v>259</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>13</v>
+      <c r="J33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>260</v>
+      </c>
+      <c r="B34" t="s">
         <v>261</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>262</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
         <v>263</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" t="s">
         <v>264</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" t="s">
         <v>265</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" t="s">
         <v>266</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" t="s">
         <v>267</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>13</v>
+      <c r="J34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -3424,189 +3367,189 @@
       <c r="B35" t="s">
         <v>269</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>270</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
         <v>271</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" t="s">
         <v>272</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" t="s">
         <v>273</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
         <v>274</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>13</v>
+      <c r="J35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B36" t="s">
         <v>276</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>277</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
         <v>278</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" t="s">
         <v>279</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" t="s">
         <v>280</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
         <v>281</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>13</v>
+      <c r="J36" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" t="s">
         <v>284</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
         <v>285</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="F37" t="s">
         <v>286</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="G37" t="s">
         <v>287</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
         <v>288</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>13</v>
+      <c r="J37" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>289</v>
+      </c>
+      <c r="B38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" t="s">
+        <v>290</v>
+      </c>
+      <c r="D38" t="s">
         <v>291</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
         <v>292</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="F38" t="s">
         <v>293</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="G38" t="s">
         <v>294</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
         <v>295</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>13</v>
+      <c r="J38" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39" t="s">
+        <v>297</v>
+      </c>
+      <c r="D39" t="s">
         <v>298</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
         <v>299</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="F39" t="s">
         <v>300</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="G39" t="s">
         <v>301</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="H39" t="s">
         <v>302</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="I39" t="s">
         <v>303</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>13</v>
+      <c r="J39" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>304</v>
+      </c>
+      <c r="B40" t="s">
         <v>305</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>306</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
         <v>307</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" t="s">
         <v>308</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" t="s">
         <v>309</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" t="s">
         <v>311</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>13</v>
+      <c r="J40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -3616,29 +3559,29 @@
       <c r="B41" t="s">
         <v>313</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" t="s">
         <v>314</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
         <v>315</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s">
         <v>316</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" t="s">
         <v>317</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" t="s">
         <v>318</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" t="s">
         <v>319</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>13</v>
+      <c r="J41" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -3648,29 +3591,29 @@
       <c r="B42" t="s">
         <v>321</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>322</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
         <v>323</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
         <v>324</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" t="s">
         <v>325</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" t="s">
         <v>326</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" t="s">
         <v>327</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>13</v>
+      <c r="J42" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -3680,29 +3623,29 @@
       <c r="B43" t="s">
         <v>329</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
+        <v>329</v>
+      </c>
+      <c r="D43" t="s">
         <v>330</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" t="s">
         <v>331</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" t="s">
         <v>332</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" t="s">
         <v>333</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" t="s">
         <v>334</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" t="s">
         <v>335</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>13</v>
+      <c r="J43" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -3712,253 +3655,253 @@
       <c r="B44" t="s">
         <v>337</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>338</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="D44" t="s">
         <v>339</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="E44" t="s">
         <v>340</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="F44" t="s">
         <v>341</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="G44" t="s">
         <v>342</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="H44" t="s">
         <v>343</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>13</v>
+      <c r="I44" t="s">
+        <v>344</v>
+      </c>
+      <c r="J44" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B45" t="s">
-        <v>345</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D45" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="C45" t="s">
         <v>347</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
         <v>348</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="F45" t="s">
         <v>349</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="G45" t="s">
         <v>350</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="H45" t="s">
         <v>351</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>13</v>
+      <c r="I45" t="s">
+        <v>352</v>
+      </c>
+      <c r="J45" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s">
-        <v>353</v>
-      </c>
-      <c r="C46" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46" t="s">
         <v>355</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
         <v>356</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" t="s">
         <v>357</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" t="s">
         <v>358</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
         <v>359</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>13</v>
+      <c r="J46" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>360</v>
+      </c>
+      <c r="B47" t="s">
         <v>361</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>362</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
         <v>363</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" t="s">
         <v>364</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" t="s">
         <v>365</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
         <v>366</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>13</v>
+      <c r="J47" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>367</v>
+      </c>
+      <c r="B48" t="s">
+        <v>368</v>
+      </c>
+      <c r="C48" t="s">
+        <v>368</v>
+      </c>
+      <c r="D48" t="s">
         <v>369</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E48" t="s">
         <v>370</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="F48" t="s">
         <v>371</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="G48" t="s">
         <v>372</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="H48" t="s">
         <v>373</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="I48" t="s">
         <v>374</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>13</v>
+      <c r="J48" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" t="s">
         <v>376</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>377</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
         <v>378</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" t="s">
         <v>379</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" t="s">
         <v>380</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
         <v>381</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>13</v>
+      <c r="J49" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>382</v>
+      </c>
+      <c r="B50" t="s">
         <v>383</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>384</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
         <v>385</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" t="s">
         <v>386</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" t="s">
         <v>387</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" t="s">
         <v>388</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" t="s">
         <v>389</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>13</v>
+      <c r="J50" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>390</v>
+      </c>
+      <c r="B51" t="s">
         <v>391</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>392</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
         <v>393</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" t="s">
         <v>394</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" t="s">
         <v>395</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" t="s">
         <v>396</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" t="s">
         <v>397</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>13</v>
+      <c r="J51" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -3968,29 +3911,29 @@
       <c r="B52" t="s">
         <v>399</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>400</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
         <v>401</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" t="s">
         <v>402</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" t="s">
         <v>403</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" t="s">
         <v>404</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" t="s">
         <v>405</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>13</v>
+      <c r="J52" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -4000,157 +3943,157 @@
       <c r="B53" t="s">
         <v>407</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>408</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
         <v>409</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" t="s">
         <v>410</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" t="s">
         <v>411</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" t="s">
         <v>412</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>13</v>
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>413</v>
+      </c>
+      <c r="B54" t="s">
         <v>414</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>415</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
         <v>416</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" t="s">
         <v>417</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" t="s">
         <v>418</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" t="s">
         <v>419</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" t="s">
         <v>420</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>13</v>
+      <c r="J54" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>421</v>
+      </c>
+      <c r="B55" t="s">
         <v>422</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>423</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
         <v>424</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" t="s">
         <v>425</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" t="s">
         <v>426</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
         <v>427</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>13</v>
+      <c r="J55" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>428</v>
+      </c>
+      <c r="B56" t="s">
         <v>429</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
         <v>430</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="F56" t="s">
         <v>431</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="G56" t="s">
         <v>432</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="H56" t="s">
         <v>433</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="I56" t="s">
         <v>434</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>13</v>
+      <c r="J56" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>435</v>
+      </c>
+      <c r="B57" t="s">
+        <v>436</v>
+      </c>
+      <c r="C57" t="s">
         <v>437</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>438</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="E57" t="s">
         <v>439</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" t="s">
         <v>440</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" t="s">
         <v>441</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" t="s">
         <v>442</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" t="s">
         <v>443</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>13</v>
+      <c r="J57" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -4160,29 +4103,29 @@
       <c r="B58" t="s">
         <v>445</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="C58" t="s">
         <v>446</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
         <v>447</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="F58" t="s">
         <v>448</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="G58" t="s">
         <v>449</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="H58" t="s">
         <v>450</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>13</v>
+      <c r="I58" t="s">
+        <v>443</v>
+      </c>
+      <c r="J58" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -4192,509 +4135,509 @@
       <c r="B59" t="s">
         <v>452</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>453</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
         <v>454</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" t="s">
         <v>455</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" t="s">
         <v>456</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
         <v>457</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>13</v>
+      <c r="J59" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>458</v>
+      </c>
+      <c r="B60" t="s">
+        <v>459</v>
+      </c>
+      <c r="C60" t="s">
+        <v>459</v>
+      </c>
+      <c r="D60" t="s">
         <v>460</v>
       </c>
-      <c r="B60" t="s">
+      <c r="E60" t="s">
         <v>461</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="F60" t="s">
         <v>462</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="G60" t="s">
         <v>463</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="H60" t="s">
         <v>464</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="I60" t="s">
         <v>465</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>13</v>
+      <c r="J60" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>466</v>
+      </c>
+      <c r="B61" t="s">
         <v>467</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>467</v>
+      </c>
+      <c r="D61" t="s">
         <v>468</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="E61" t="s">
         <v>469</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" t="s">
         <v>470</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" t="s">
         <v>471</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" t="s">
         <v>472</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>13</v>
+      <c r="J61" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>473</v>
+      </c>
+      <c r="B62" t="s">
         <v>474</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>475</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
         <v>476</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" t="s">
         <v>477</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" t="s">
         <v>478</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
         <v>479</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>13</v>
+      <c r="J62" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>480</v>
+      </c>
+      <c r="B63" t="s">
+        <v>481</v>
+      </c>
+      <c r="C63" t="s">
         <v>482</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
         <v>483</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="F63" t="s">
         <v>484</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="G63" t="s">
         <v>485</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="H63" t="s">
         <v>486</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="I63" t="s">
         <v>487</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>13</v>
+      <c r="J63" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>488</v>
+      </c>
+      <c r="B64" t="s">
         <v>489</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>490</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
         <v>491</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" t="s">
         <v>492</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" t="s">
         <v>493</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
         <v>494</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>13</v>
+      <c r="J64" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>495</v>
+      </c>
+      <c r="B65" t="s">
         <v>496</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>497</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
         <v>498</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" t="s">
         <v>499</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" t="s">
         <v>500</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
         <v>501</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>13</v>
+      <c r="J65" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>502</v>
+      </c>
+      <c r="B66" t="s">
+        <v>503</v>
+      </c>
+      <c r="C66" t="s">
         <v>504</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
         <v>505</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="F66" t="s">
         <v>506</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="G66" t="s">
         <v>507</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" t="s">
         <v>508</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>13</v>
+      <c r="J66" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>509</v>
+      </c>
+      <c r="B67" t="s">
+        <v>510</v>
+      </c>
+      <c r="C67" t="s">
+        <v>510</v>
+      </c>
+      <c r="D67" t="s">
         <v>511</v>
       </c>
-      <c r="B67" t="s">
+      <c r="E67" t="s">
         <v>512</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="F67" t="s">
         <v>513</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="2" t="s">
+      <c r="G67" t="s">
         <v>514</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
         <v>515</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>13</v>
+      <c r="J67" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>516</v>
+      </c>
+      <c r="B68" t="s">
+        <v>517</v>
+      </c>
+      <c r="C68" t="s">
         <v>518</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
         <v>519</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="E68" t="s">
         <v>520</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" t="s">
         <v>521</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" t="s">
         <v>522</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" t="s">
         <v>523</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>13</v>
+      <c r="J68" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>524</v>
+      </c>
+      <c r="B69" t="s">
         <v>525</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
         <v>527</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="F69" t="s">
         <v>528</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" t="s">
         <v>529</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" t="s">
         <v>530</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>13</v>
+      <c r="J69" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>531</v>
+      </c>
+      <c r="B70" t="s">
         <v>532</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>533</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
         <v>534</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="F70" t="s">
         <v>535</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="G70" t="s">
         <v>536</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="H70" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" t="s">
         <v>537</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>13</v>
+      <c r="J70" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>538</v>
+      </c>
+      <c r="B71" t="s">
+        <v>539</v>
+      </c>
+      <c r="C71" t="s">
         <v>540</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
         <v>541</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="F71" t="s">
         <v>542</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="G71" t="s">
         <v>543</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="H71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
         <v>544</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>13</v>
+      <c r="J71" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>545</v>
+      </c>
+      <c r="B72" t="s">
+        <v>546</v>
+      </c>
+      <c r="C72" t="s">
         <v>547</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
         <v>548</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="F72" t="s">
         <v>549</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="G72" t="s">
         <v>550</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="H72" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" t="s">
         <v>551</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>13</v>
+      <c r="J72" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>552</v>
+      </c>
+      <c r="B73" t="s">
+        <v>553</v>
+      </c>
+      <c r="C73" t="s">
         <v>554</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
         <v>555</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="F73" t="s">
         <v>556</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="G73" t="s">
         <v>557</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
         <v>558</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>13</v>
+      <c r="J73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>559</v>
+      </c>
+      <c r="B74" t="s">
+        <v>560</v>
+      </c>
+      <c r="C74" t="s">
         <v>561</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
         <v>562</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="E74" t="s">
         <v>563</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="F74" t="s">
         <v>564</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" t="s">
         <v>565</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" t="s">
         <v>566</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" t="s">
         <v>567</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>13</v>
+      <c r="J74" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -4704,285 +4647,221 @@
       <c r="B75" t="s">
         <v>569</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" t="s">
         <v>570</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="2" t="s">
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
         <v>571</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" t="s">
         <v>572</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" t="s">
         <v>573</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="2" t="s">
+      <c r="H75" t="s">
         <v>574</v>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="I75" t="s">
         <v>575</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="J75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>576</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="B76" t="s">
         <v>577</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="C76" t="s">
         <v>578</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
         <v>579</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" t="s">
         <v>580</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" t="s">
         <v>581</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" t="s">
         <v>582</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>13</v>
+      <c r="J76" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>583</v>
+      </c>
+      <c r="B77" t="s">
         <v>584</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>585</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
         <v>586</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" t="s">
         <v>587</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" t="s">
         <v>588</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" t="s">
         <v>589</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>13</v>
+      <c r="J77" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>590</v>
+      </c>
+      <c r="B78" t="s">
+        <v>591</v>
+      </c>
+      <c r="C78" t="s">
         <v>592</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
         <v>593</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="F78" t="s">
         <v>594</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="G78" t="s">
         <v>595</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="H78" t="s">
+        <v>10</v>
+      </c>
+      <c r="I78" t="s">
         <v>596</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>13</v>
+      <c r="J78" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>597</v>
+      </c>
+      <c r="B79" t="s">
+        <v>598</v>
+      </c>
+      <c r="C79" t="s">
+        <v>598</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
         <v>599</v>
       </c>
-      <c r="B79" t="s">
+      <c r="F79" t="s">
         <v>600</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="G79" t="s">
         <v>601</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="2" t="s">
+      <c r="H79" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" t="s">
         <v>602</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>13</v>
+      <c r="J79" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>603</v>
+      </c>
+      <c r="B80" t="s">
+        <v>604</v>
+      </c>
+      <c r="C80" t="s">
+        <v>605</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
         <v>606</v>
       </c>
-      <c r="B80" t="s">
+      <c r="F80" t="s">
         <v>607</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="G80" t="s">
         <v>608</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="2" t="s">
+      <c r="H80" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" t="s">
         <v>609</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>13</v>
+      <c r="J80" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>610</v>
+      </c>
+      <c r="B81" t="s">
+        <v>611</v>
+      </c>
+      <c r="C81" t="s">
+        <v>612</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
         <v>613</v>
       </c>
-      <c r="B81" t="s">
+      <c r="F81" t="s">
         <v>614</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="2" t="s">
+      <c r="G81" t="s">
         <v>615</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="H81" t="s">
         <v>616</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="I81" t="s">
         <v>617</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="2" t="s">
+      <c r="J81" t="s">
         <v>618</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>619</v>
-      </c>
-      <c r="B82" t="s">
-        <v>620</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>626</v>
-      </c>
-      <c r="B83" t="s">
-        <v>627</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -4990,7 +4869,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J83" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J1 A11:J81 A2:J10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/dental_laboratories/data.xlsx
+++ b/data/dental_laboratories/data.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\オープンデータ更新（一時保管）\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE22BE0E-F1EF-41C6-BEF8-30D3CC7CBA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A1A733-FC2C-4512-BF48-D4C3318EE18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="618">
   <si>
     <t>№</t>
   </si>
@@ -52,18 +47,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>フセイシデンタル工房</t>
+  </si>
+  <si>
+    <t>伏石　善行</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>フセイシデンタル工房</t>
-  </si>
-  <si>
-    <t>伏石　善行</t>
-  </si>
-  <si>
     <t>34.280029</t>
   </si>
   <si>
@@ -1840,16 +1835,16 @@
     <t>江戸　良太</t>
   </si>
   <si>
-    <t>34.302599</t>
-  </si>
-  <si>
-    <t>133.959391</t>
-  </si>
-  <si>
-    <t>香川県高松市国分寺町新居1761-1</t>
-  </si>
-  <si>
-    <t>2025/1/1</t>
+    <t>34.33233</t>
+  </si>
+  <si>
+    <t>134.09224</t>
+  </si>
+  <si>
+    <t>高松市春日町１３９３－８</t>
+  </si>
+  <si>
+    <t>2025/8/1</t>
   </si>
   <si>
     <t>82</t>
@@ -1874,9 +1869,6 @@
   </si>
   <si>
     <t>2025/4/1</t>
-  </si>
-  <si>
-    <t>新規マップピン</t>
   </si>
 </sst>
 </file>
@@ -2262,15 +2254,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D80" sqref="D79:I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="64.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.796875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2306,16 +2294,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -2333,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2347,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -2365,7 +2353,7 @@
         <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2379,7 +2367,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -2391,13 +2379,13 @@
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2429,7 +2417,7 @@
         <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2443,7 +2431,7 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
@@ -2461,7 +2449,7 @@
         <v>49</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2493,7 +2481,7 @@
         <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2507,7 +2495,7 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>61</v>
@@ -2525,7 +2513,7 @@
         <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2539,7 +2527,7 @@
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>69</v>
@@ -2557,7 +2545,7 @@
         <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2571,7 +2559,7 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>77</v>
@@ -2589,7 +2577,7 @@
         <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2603,7 +2591,7 @@
         <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>85</v>
@@ -2621,7 +2609,7 @@
         <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2635,7 +2623,7 @@
         <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>93</v>
@@ -2653,7 +2641,7 @@
         <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2667,7 +2655,7 @@
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
         <v>101</v>
@@ -2685,7 +2673,7 @@
         <v>105</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2717,7 +2705,7 @@
         <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2731,7 +2719,7 @@
         <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
         <v>117</v>
@@ -2749,7 +2737,7 @@
         <v>121</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2763,7 +2751,7 @@
         <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
         <v>125</v>
@@ -2781,7 +2769,7 @@
         <v>129</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -2795,7 +2783,7 @@
         <v>132</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>133</v>
@@ -2813,7 +2801,7 @@
         <v>137</v>
       </c>
       <c r="J17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -2845,7 +2833,7 @@
         <v>145</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -2859,7 +2847,7 @@
         <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>149</v>
@@ -2871,13 +2859,13 @@
         <v>151</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
         <v>152</v>
       </c>
       <c r="J19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -2891,7 +2879,7 @@
         <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
         <v>156</v>
@@ -2909,7 +2897,7 @@
         <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2923,7 +2911,7 @@
         <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>164</v>
@@ -2941,7 +2929,7 @@
         <v>160</v>
       </c>
       <c r="J21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2955,7 +2943,7 @@
         <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
         <v>171</v>
@@ -2973,7 +2961,7 @@
         <v>175</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -2987,7 +2975,7 @@
         <v>178</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>179</v>
@@ -3005,7 +2993,7 @@
         <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -3019,7 +3007,7 @@
         <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
         <v>187</v>
@@ -3031,13 +3019,13 @@
         <v>189</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
         <v>190</v>
       </c>
       <c r="J24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -3051,7 +3039,7 @@
         <v>193</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
         <v>194</v>
@@ -3063,13 +3051,13 @@
         <v>196</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
         <v>197</v>
       </c>
       <c r="J25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -3083,7 +3071,7 @@
         <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>201</v>
@@ -3101,7 +3089,7 @@
         <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -3115,7 +3103,7 @@
         <v>208</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
         <v>209</v>
@@ -3133,7 +3121,7 @@
         <v>213</v>
       </c>
       <c r="J27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -3147,7 +3135,7 @@
         <v>216</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>217</v>
@@ -3165,7 +3153,7 @@
         <v>221</v>
       </c>
       <c r="J28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -3179,7 +3167,7 @@
         <v>224</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>225</v>
@@ -3197,7 +3185,7 @@
         <v>152</v>
       </c>
       <c r="J29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -3211,7 +3199,7 @@
         <v>231</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
         <v>232</v>
@@ -3229,7 +3217,7 @@
         <v>236</v>
       </c>
       <c r="J30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -3243,7 +3231,7 @@
         <v>239</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
         <v>240</v>
@@ -3261,7 +3249,7 @@
         <v>244</v>
       </c>
       <c r="J31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -3275,7 +3263,7 @@
         <v>247</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
         <v>248</v>
@@ -3287,13 +3275,13 @@
         <v>250</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
         <v>251</v>
       </c>
       <c r="J32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -3307,7 +3295,7 @@
         <v>254</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
         <v>255</v>
@@ -3325,7 +3313,7 @@
         <v>259</v>
       </c>
       <c r="J33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -3339,7 +3327,7 @@
         <v>262</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
         <v>263</v>
@@ -3357,7 +3345,7 @@
         <v>267</v>
       </c>
       <c r="J34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -3371,7 +3359,7 @@
         <v>270</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
         <v>271</v>
@@ -3383,13 +3371,13 @@
         <v>273</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I35" t="s">
         <v>274</v>
       </c>
       <c r="J35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -3403,7 +3391,7 @@
         <v>277</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
         <v>278</v>
@@ -3415,13 +3403,13 @@
         <v>280</v>
       </c>
       <c r="H36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I36" t="s">
         <v>281</v>
       </c>
       <c r="J36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -3435,7 +3423,7 @@
         <v>284</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
         <v>285</v>
@@ -3447,13 +3435,13 @@
         <v>287</v>
       </c>
       <c r="H37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
         <v>288</v>
       </c>
       <c r="J37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -3479,13 +3467,13 @@
         <v>294</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I38" t="s">
         <v>295</v>
       </c>
       <c r="J38" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -3517,7 +3505,7 @@
         <v>303</v>
       </c>
       <c r="J39" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -3531,7 +3519,7 @@
         <v>306</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
         <v>307</v>
@@ -3549,7 +3537,7 @@
         <v>311</v>
       </c>
       <c r="J40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -3563,7 +3551,7 @@
         <v>314</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
         <v>315</v>
@@ -3581,7 +3569,7 @@
         <v>319</v>
       </c>
       <c r="J41" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -3595,7 +3583,7 @@
         <v>322</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
         <v>323</v>
@@ -3613,7 +3601,7 @@
         <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -3645,7 +3633,7 @@
         <v>335</v>
       </c>
       <c r="J43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -3677,7 +3665,7 @@
         <v>344</v>
       </c>
       <c r="J44" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -3691,7 +3679,7 @@
         <v>347</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
         <v>348</v>
@@ -3709,7 +3697,7 @@
         <v>352</v>
       </c>
       <c r="J45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -3723,7 +3711,7 @@
         <v>355</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
         <v>356</v>
@@ -3735,13 +3723,13 @@
         <v>358</v>
       </c>
       <c r="H46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I46" t="s">
         <v>359</v>
       </c>
       <c r="J46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -3755,7 +3743,7 @@
         <v>362</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
         <v>363</v>
@@ -3767,13 +3755,13 @@
         <v>365</v>
       </c>
       <c r="H47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I47" t="s">
         <v>366</v>
       </c>
       <c r="J47" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -3805,7 +3793,7 @@
         <v>374</v>
       </c>
       <c r="J48" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -3819,7 +3807,7 @@
         <v>377</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
         <v>378</v>
@@ -3831,13 +3819,13 @@
         <v>380</v>
       </c>
       <c r="H49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I49" t="s">
         <v>381</v>
       </c>
       <c r="J49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -3851,7 +3839,7 @@
         <v>384</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
         <v>385</v>
@@ -3869,7 +3857,7 @@
         <v>389</v>
       </c>
       <c r="J50" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -3883,7 +3871,7 @@
         <v>392</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
         <v>393</v>
@@ -3901,7 +3889,7 @@
         <v>397</v>
       </c>
       <c r="J51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -3915,7 +3903,7 @@
         <v>400</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
         <v>401</v>
@@ -3933,7 +3921,7 @@
         <v>405</v>
       </c>
       <c r="J52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -3947,7 +3935,7 @@
         <v>408</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
         <v>409</v>
@@ -3962,10 +3950,10 @@
         <v>412</v>
       </c>
       <c r="I53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3979,7 +3967,7 @@
         <v>415</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E54" t="s">
         <v>416</v>
@@ -3997,7 +3985,7 @@
         <v>420</v>
       </c>
       <c r="J54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -4011,7 +3999,7 @@
         <v>423</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
         <v>424</v>
@@ -4023,13 +4011,13 @@
         <v>426</v>
       </c>
       <c r="H55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I55" t="s">
         <v>427</v>
       </c>
       <c r="J55" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -4043,7 +4031,7 @@
         <v>429</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
         <v>430</v>
@@ -4061,7 +4049,7 @@
         <v>434</v>
       </c>
       <c r="J56" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -4093,7 +4081,7 @@
         <v>443</v>
       </c>
       <c r="J57" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -4107,7 +4095,7 @@
         <v>446</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
         <v>447</v>
@@ -4125,7 +4113,7 @@
         <v>443</v>
       </c>
       <c r="J58" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -4139,7 +4127,7 @@
         <v>453</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" t="s">
         <v>454</v>
@@ -4151,13 +4139,13 @@
         <v>456</v>
       </c>
       <c r="H59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I59" t="s">
         <v>457</v>
       </c>
       <c r="J59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -4189,7 +4177,7 @@
         <v>465</v>
       </c>
       <c r="J60" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -4215,13 +4203,13 @@
         <v>471</v>
       </c>
       <c r="H61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I61" t="s">
         <v>472</v>
       </c>
       <c r="J61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -4235,7 +4223,7 @@
         <v>475</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
         <v>476</v>
@@ -4247,13 +4235,13 @@
         <v>478</v>
       </c>
       <c r="H62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I62" t="s">
         <v>479</v>
       </c>
       <c r="J62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -4267,7 +4255,7 @@
         <v>482</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
         <v>483</v>
@@ -4285,7 +4273,7 @@
         <v>487</v>
       </c>
       <c r="J63" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -4299,7 +4287,7 @@
         <v>490</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
         <v>491</v>
@@ -4311,13 +4299,13 @@
         <v>493</v>
       </c>
       <c r="H64" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I64" t="s">
         <v>494</v>
       </c>
       <c r="J64" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -4331,7 +4319,7 @@
         <v>497</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
         <v>498</v>
@@ -4343,13 +4331,13 @@
         <v>500</v>
       </c>
       <c r="H65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I65" t="s">
         <v>501</v>
       </c>
       <c r="J65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -4363,7 +4351,7 @@
         <v>504</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
         <v>505</v>
@@ -4375,13 +4363,13 @@
         <v>507</v>
       </c>
       <c r="H66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I66" t="s">
         <v>508</v>
       </c>
       <c r="J66" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -4407,13 +4395,13 @@
         <v>514</v>
       </c>
       <c r="H67" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I67" t="s">
         <v>515</v>
       </c>
       <c r="J67" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -4439,13 +4427,13 @@
         <v>522</v>
       </c>
       <c r="H68" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I68" t="s">
         <v>523</v>
       </c>
       <c r="J68" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -4459,7 +4447,7 @@
         <v>526</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
         <v>527</v>
@@ -4471,13 +4459,13 @@
         <v>529</v>
       </c>
       <c r="H69" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I69" t="s">
         <v>530</v>
       </c>
       <c r="J69" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -4491,7 +4479,7 @@
         <v>533</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
         <v>534</v>
@@ -4503,13 +4491,13 @@
         <v>536</v>
       </c>
       <c r="H70" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I70" t="s">
         <v>537</v>
       </c>
       <c r="J70" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -4523,7 +4511,7 @@
         <v>540</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
         <v>541</v>
@@ -4535,13 +4523,13 @@
         <v>543</v>
       </c>
       <c r="H71" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I71" t="s">
         <v>544</v>
       </c>
       <c r="J71" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -4555,7 +4543,7 @@
         <v>547</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
         <v>548</v>
@@ -4567,13 +4555,13 @@
         <v>550</v>
       </c>
       <c r="H72" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I72" t="s">
         <v>551</v>
       </c>
       <c r="J72" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -4587,7 +4575,7 @@
         <v>554</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
         <v>555</v>
@@ -4599,13 +4587,13 @@
         <v>557</v>
       </c>
       <c r="H73" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I73" t="s">
         <v>558</v>
       </c>
       <c r="J73" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -4637,7 +4625,7 @@
         <v>567</v>
       </c>
       <c r="J74" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -4651,7 +4639,7 @@
         <v>570</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
         <v>571</v>
@@ -4669,7 +4657,7 @@
         <v>575</v>
       </c>
       <c r="J75" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -4683,7 +4671,7 @@
         <v>578</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
         <v>579</v>
@@ -4695,13 +4683,13 @@
         <v>581</v>
       </c>
       <c r="H76" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I76" t="s">
         <v>582</v>
       </c>
       <c r="J76" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -4715,7 +4703,7 @@
         <v>585</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
         <v>586</v>
@@ -4727,13 +4715,13 @@
         <v>588</v>
       </c>
       <c r="H77" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I77" t="s">
         <v>589</v>
       </c>
       <c r="J77" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -4747,7 +4735,7 @@
         <v>592</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
         <v>593</v>
@@ -4759,13 +4747,13 @@
         <v>595</v>
       </c>
       <c r="H78" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I78" t="s">
         <v>596</v>
       </c>
       <c r="J78" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -4779,7 +4767,7 @@
         <v>598</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
         <v>599</v>
@@ -4791,13 +4779,13 @@
         <v>601</v>
       </c>
       <c r="H79" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I79" t="s">
         <v>602</v>
       </c>
       <c r="J79" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -4811,7 +4799,7 @@
         <v>605</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
         <v>606</v>
@@ -4823,13 +4811,13 @@
         <v>608</v>
       </c>
       <c r="H80" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I80" t="s">
         <v>609</v>
       </c>
       <c r="J80" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -4843,7 +4831,7 @@
         <v>612</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
         <v>613</v>
@@ -4861,7 +4849,7 @@
         <v>617</v>
       </c>
       <c r="J81" t="s">
-        <v>618</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4869,7 +4857,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J1 A11:J81 A2:J10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J81" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/dental_laboratories/data.xlsx
+++ b/data/dental_laboratories/data.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A1A733-FC2C-4512-BF48-D4C3318EE18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3F1D3C-9E82-44A6-9A25-9D9A5940975D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="611">
   <si>
     <t>№</t>
   </si>
@@ -1301,27 +1306,6 @@
     <t>2015/5/18</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>株式会社WILLE　</t>
-  </si>
-  <si>
-    <t>34.284566</t>
-  </si>
-  <si>
-    <t>134.011284</t>
-  </si>
-  <si>
-    <t>香川県高松市円座町１４３８番地１</t>
-  </si>
-  <si>
-    <t>087-880-2654</t>
-  </si>
-  <si>
-    <t>2020/10/1</t>
-  </si>
-  <si>
     <t>58</t>
   </si>
   <si>
@@ -1841,7 +1825,7 @@
     <t>134.09224</t>
   </si>
   <si>
-    <t>高松市春日町１３９３－８</t>
+    <t>高松市春日町１３９３−８</t>
   </si>
   <si>
     <t>2025/8/1</t>
@@ -1891,12 +1875,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1911,8 +1901,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2252,15 +2243,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D80" sqref="D79:I80"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2324,7 +2315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2356,7 +2347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2388,7 +2379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2420,7 +2411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2452,7 +2443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2484,7 +2475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2516,7 +2507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2548,7 +2539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2580,7 +2571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2612,7 +2603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -2644,7 +2635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>98</v>
       </c>
@@ -2676,7 +2667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -2708,7 +2699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -2740,7 +2731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -2772,7 +2763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -2804,7 +2795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -2836,7 +2827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -2868,7 +2859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -2900,7 +2891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -2932,7 +2923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>168</v>
       </c>
@@ -2964,7 +2955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>176</v>
       </c>
@@ -2996,7 +2987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -3028,7 +3019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -3060,7 +3051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>198</v>
       </c>
@@ -3092,7 +3083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>206</v>
       </c>
@@ -3124,7 +3115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -3143,7 +3134,7 @@
       <c r="F28" t="s">
         <v>218</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>219</v>
       </c>
       <c r="H28" t="s">
@@ -3156,7 +3147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>222</v>
       </c>
@@ -3188,7 +3179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>229</v>
       </c>
@@ -3220,7 +3211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -3252,7 +3243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -3284,7 +3275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>252</v>
       </c>
@@ -3316,7 +3307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>260</v>
       </c>
@@ -3348,7 +3339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>268</v>
       </c>
@@ -3380,7 +3371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>275</v>
       </c>
@@ -3412,7 +3403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -3444,7 +3435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>289</v>
       </c>
@@ -3476,7 +3467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>296</v>
       </c>
@@ -3508,7 +3499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>304</v>
       </c>
@@ -3540,7 +3531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>312</v>
       </c>
@@ -3572,7 +3563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>320</v>
       </c>
@@ -3604,7 +3595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>328</v>
       </c>
@@ -3636,7 +3627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>336</v>
       </c>
@@ -3668,7 +3659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>345</v>
       </c>
@@ -3700,7 +3691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>353</v>
       </c>
@@ -3732,7 +3723,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>360</v>
       </c>
@@ -3764,7 +3755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>367</v>
       </c>
@@ -3796,7 +3787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>375</v>
       </c>
@@ -3828,7 +3819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>382</v>
       </c>
@@ -3860,7 +3851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>390</v>
       </c>
@@ -3892,7 +3883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>398</v>
       </c>
@@ -3924,7 +3915,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>406</v>
       </c>
@@ -3956,7 +3947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>413</v>
       </c>
@@ -3988,7 +3979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>421</v>
       </c>
@@ -4020,7 +4011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>428</v>
       </c>
@@ -4028,63 +4019,63 @@
         <v>429</v>
       </c>
       <c r="C56" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>431</v>
       </c>
       <c r="E56" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F56" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G56" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H56" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I56" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J56" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B57" t="s">
+        <v>438</v>
+      </c>
+      <c r="C57" t="s">
+        <v>439</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>440</v>
+      </c>
+      <c r="F57" t="s">
+        <v>441</v>
+      </c>
+      <c r="G57" t="s">
+        <v>442</v>
+      </c>
+      <c r="H57" t="s">
+        <v>443</v>
+      </c>
+      <c r="I57" t="s">
         <v>436</v>
       </c>
-      <c r="C57" t="s">
-        <v>437</v>
-      </c>
-      <c r="D57" t="s">
-        <v>438</v>
-      </c>
-      <c r="E57" t="s">
-        <v>439</v>
-      </c>
-      <c r="F57" t="s">
-        <v>440</v>
-      </c>
-      <c r="G57" t="s">
-        <v>441</v>
-      </c>
-      <c r="H57" t="s">
-        <v>442</v>
-      </c>
-      <c r="I57" t="s">
-        <v>443</v>
-      </c>
       <c r="J57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>444</v>
       </c>
@@ -4107,16 +4098,16 @@
         <v>449</v>
       </c>
       <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" t="s">
         <v>450</v>
       </c>
-      <c r="I58" t="s">
-        <v>443</v>
-      </c>
       <c r="J58" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>451</v>
       </c>
@@ -4124,10 +4115,10 @@
         <v>452</v>
       </c>
       <c r="C59" t="s">
+        <v>452</v>
+      </c>
+      <c r="D59" t="s">
         <v>453</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
       </c>
       <c r="E59" t="s">
         <v>454</v>
@@ -4139,39 +4130,39 @@
         <v>456</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="I59" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B60" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C60" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D60" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E60" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F60" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G60" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H60" t="s">
-        <v>464</v>
+        <v>13</v>
       </c>
       <c r="I60" t="s">
         <v>465</v>
@@ -4180,7 +4171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>466</v>
       </c>
@@ -4188,10 +4179,10 @@
         <v>467</v>
       </c>
       <c r="C61" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D61" t="s">
-        <v>468</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
         <v>469</v>
@@ -4212,7 +4203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>473</v>
       </c>
@@ -4235,39 +4226,39 @@
         <v>478</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
+        <v>479</v>
       </c>
       <c r="I62" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B63" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C63" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F63" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G63" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H63" t="s">
-        <v>486</v>
+        <v>13</v>
       </c>
       <c r="I63" t="s">
         <v>487</v>
@@ -4276,7 +4267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>488</v>
       </c>
@@ -4308,7 +4299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>495</v>
       </c>
@@ -4340,7 +4331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>502</v>
       </c>
@@ -4348,10 +4339,10 @@
         <v>503</v>
       </c>
       <c r="C66" t="s">
+        <v>503</v>
+      </c>
+      <c r="D66" t="s">
         <v>504</v>
-      </c>
-      <c r="D66" t="s">
-        <v>13</v>
       </c>
       <c r="E66" t="s">
         <v>505</v>
@@ -4372,7 +4363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>509</v>
       </c>
@@ -4380,42 +4371,42 @@
         <v>510</v>
       </c>
       <c r="C67" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D67" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E67" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F67" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G67" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
       </c>
       <c r="I67" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J67" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B68" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C68" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D68" t="s">
-        <v>519</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
         <v>520</v>
@@ -4436,7 +4427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>524</v>
       </c>
@@ -4468,7 +4459,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>531</v>
       </c>
@@ -4500,7 +4491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>538</v>
       </c>
@@ -4532,7 +4523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>545</v>
       </c>
@@ -4564,7 +4555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>552</v>
       </c>
@@ -4575,83 +4566,83 @@
         <v>554</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>555</v>
       </c>
       <c r="E73" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F73" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G73" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H73" t="s">
-        <v>13</v>
+        <v>559</v>
       </c>
       <c r="I73" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J73" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B74" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C74" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D74" t="s">
-        <v>562</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F74" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G74" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H74" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I74" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B75" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C75" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F75" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G75" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H75" t="s">
-        <v>574</v>
+        <v>13</v>
       </c>
       <c r="I75" t="s">
         <v>575</v>
@@ -4660,7 +4651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>576</v>
       </c>
@@ -4692,7 +4683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>583</v>
       </c>
@@ -4724,7 +4715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>590</v>
       </c>
@@ -4732,36 +4723,36 @@
         <v>591</v>
       </c>
       <c r="C78" t="s">
+        <v>591</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
         <v>592</v>
       </c>
-      <c r="D78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>593</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>594</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
         <v>595</v>
       </c>
-      <c r="H78" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>596</v>
       </c>
-      <c r="J78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
         <v>597</v>
-      </c>
-      <c r="B79" t="s">
-        <v>598</v>
       </c>
       <c r="C79" t="s">
         <v>598</v>
@@ -4788,7 +4779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>603</v>
       </c>
@@ -4811,53 +4802,20 @@
         <v>608</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
+        <v>609</v>
       </c>
       <c r="I80" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>610</v>
-      </c>
-      <c r="B81" t="s">
-        <v>611</v>
-      </c>
-      <c r="C81" t="s">
-        <v>612</v>
-      </c>
-      <c r="D81" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" t="s">
-        <v>613</v>
-      </c>
-      <c r="F81" t="s">
-        <v>614</v>
-      </c>
-      <c r="G81" t="s">
-        <v>615</v>
-      </c>
-      <c r="H81" t="s">
-        <v>616</v>
-      </c>
-      <c r="I81" t="s">
-        <v>617</v>
-      </c>
-      <c r="J81" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J81" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J55 A56:J80" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>